--- a/biology/Médecine/Cuir_chevelu/Cuir_chevelu.xlsx
+++ b/biology/Médecine/Cuir_chevelu/Cuir_chevelu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cuir chevelu désigne la partie de la peau du crâne qui développe une pilosité de type chevelure.
 </t>
@@ -511,10 +523,12 @@
           <t>Pathologies</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Calvitie
-Cancer de la peau : cette partie du corps fait partie de celles qui parce que très exposées au soleil, sont plus souvent touchées par le carcinome épidermoïde, l’une des formes plus fréquentes de cancer de la peau chez les personnes à peau blanche[1].
+Cancer de la peau : cette partie du corps fait partie de celles qui parce que très exposées au soleil, sont plus souvent touchées par le carcinome épidermoïde, l’une des formes plus fréquentes de cancer de la peau chez les personnes à peau blanche.
 Nævus</t>
         </is>
       </c>
